--- a/biology/Botanique/Brachystegia/Brachystegia.xlsx
+++ b/biology/Botanique/Brachystegia/Brachystegia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachystegia est un genre botanique composé de 25 à 43 espèces d'arbres tropicaux originaires d'Afrique. Les arbres de ce genre sont généralement connus sous le nom de miombo et sont prédominants dans les formations arborées de miombo d'Afrique centrale et méridionale.
 </t>
@@ -513,17 +525,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon NCBI  (13 juil. 2010)[1]
-Brachystegia boehmii
+          <t>Selon NCBI  (13 juil. 2010)[1]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Brachystegia boehmii
 Brachystegia bussei
 Brachystegia laurentii
 Brachystegia leonensis
 Brachystegia longifolia
 Brachystegia mildbraedii
 Brachystegia spiciformis
-Brachystegia zenkeri
-Selon GRIN[2].
-Brachystegia allenii Burtt Davy &amp; Hutch.
+Brachystegia zenkeri</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brachystegia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brachystegia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon GRIN[2].</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Brachystegia allenii Burtt Davy &amp; Hutch.
 Brachystegia angustistipulata De Wild.
 Brachystegia bakeriana Burtt Davy &amp; Hutch.
 Brachystegia bequaertii De Wild.
